--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43851,6 +43851,41 @@
         <v>54000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>138500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43886,6 +43886,41 @@
         <v>138500</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43921,6 +43921,43 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43958,6 +43958,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43995,6 +43995,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44030,6 +44030,41 @@
         <v>3400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44065,6 +44065,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44102,6 +44102,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44139,6 +44139,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44176,6 +44176,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44213,6 +44213,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44250,6 +44250,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44287,6 +44287,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44322,6 +44322,80 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44396,6 +44396,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44433,6 +44433,43 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44470,6 +44470,41 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44505,6 +44505,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>53000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44540,6 +44540,78 @@
         <v>53000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44612,6 +44612,43 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44649,6 +44649,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2078"/>
+  <dimension ref="A1:I2079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74154,6 +74154,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2079" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2079" t="n">
+        <v>31100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2079"/>
+  <dimension ref="A1:I2080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74189,6 +74189,41 @@
         <v>31100</v>
       </c>
     </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2080" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2080" t="n">
+        <v>23100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2080"/>
+  <dimension ref="A1:I2081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74224,6 +74224,41 @@
         <v>23100</v>
       </c>
     </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2081" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2081" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2081"/>
+  <dimension ref="A1:I2082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74259,6 +74259,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2082" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2082" t="n">
+        <v>23900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2082"/>
+  <dimension ref="A1:I2083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74294,6 +74294,41 @@
         <v>23900</v>
       </c>
     </row>
+    <row r="2083">
+      <c r="A2083" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2083" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2083" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2083" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2083" t="n">
+        <v>5400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2083"/>
+  <dimension ref="A1:I2084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74329,6 +74329,41 @@
         <v>5400</v>
       </c>
     </row>
+    <row r="2084">
+      <c r="A2084" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2084" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2084" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2084" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2084" t="n">
+        <v>25600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2084"/>
+  <dimension ref="A1:I2085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74364,6 +74364,43 @@
         <v>25600</v>
       </c>
     </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2085" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2085" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2085" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2085" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2085"/>
+  <dimension ref="A1:I2086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74401,6 +74401,43 @@
         </is>
       </c>
     </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2086" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2086" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2086" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2086" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2086"/>
+  <dimension ref="A1:I2087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74438,6 +74438,41 @@
         </is>
       </c>
     </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2087" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2087" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2087" t="n">
+        <v>54000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2087"/>
+  <dimension ref="A1:I2088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74473,6 +74473,41 @@
         <v>54000</v>
       </c>
     </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H2088" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I2088" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2088"/>
+  <dimension ref="A1:I2089"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74508,6 +74508,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H2089" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I2089" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2089"/>
+  <dimension ref="A1:I2090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74545,6 +74545,41 @@
         </is>
       </c>
     </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2090" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2090" t="n">
+        <v>3200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2090"/>
+  <dimension ref="A1:I2091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74580,6 +74580,41 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H2091" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2091" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2091"/>
+  <dimension ref="A1:I2092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74615,6 +74615,41 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H2092" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I2092" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2092"/>
+  <dimension ref="A1:I2093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74650,6 +74650,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2093" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2093" t="n">
+        <v>10300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2905"/>
+  <dimension ref="A1:I2906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103105,6 +103105,43 @@
         <v>10300</v>
       </c>
     </row>
+    <row r="2906">
+      <c r="A2906" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2906" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2906" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2906" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2906" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2906" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H2906" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2906" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2906"/>
+  <dimension ref="A1:I2907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103142,6 +103142,43 @@
         </is>
       </c>
     </row>
+    <row r="2907">
+      <c r="A2907" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2907" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2907" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2907" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2907" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2907" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H2907" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2907" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2907"/>
+  <dimension ref="A1:I2908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103179,6 +103179,41 @@
         </is>
       </c>
     </row>
+    <row r="2908">
+      <c r="A2908" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2908" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2908" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2908" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2908" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2908" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2908" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2908"/>
+  <dimension ref="A1:I2909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103214,6 +103214,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2909">
+      <c r="A2909" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2909" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2909" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2909" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2909" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2909" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2909" t="n">
+        <v>5200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2909"/>
+  <dimension ref="A1:I2910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103249,6 +103249,41 @@
         <v>5200</v>
       </c>
     </row>
+    <row r="2910">
+      <c r="A2910" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2910" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2910" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2910" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2910" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H2910" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2910" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2910"/>
+  <dimension ref="A1:I2911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103284,6 +103284,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2911">
+      <c r="A2911" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2911" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2911" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F2911" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G2911" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H2911" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2911" t="n">
+        <v>10600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2911"/>
+  <dimension ref="A1:I2912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103319,6 +103319,41 @@
         <v>10600</v>
       </c>
     </row>
+    <row r="2912">
+      <c r="A2912" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2912" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2912" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2912" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2912" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H2912" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2912" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2912"/>
+  <dimension ref="A1:I2913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103354,6 +103354,41 @@
         <v>600</v>
       </c>
     </row>
+    <row r="2913">
+      <c r="A2913" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2913" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2913" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2913" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2913" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2913" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2913" t="n">
+        <v>8200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2913"/>
+  <dimension ref="A1:I2914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103389,6 +103389,41 @@
         <v>8200</v>
       </c>
     </row>
+    <row r="2914">
+      <c r="A2914" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2914" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2914" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2914" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G2914" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2914" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2914" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2914"/>
+  <dimension ref="A1:I2915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103424,6 +103424,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2915">
+      <c r="A2915" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2915" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2915" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2915" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2915" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2915" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I2915" t="n">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2915"/>
+  <dimension ref="A1:I2917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103459,6 +103459,76 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="2916">
+      <c r="A2916" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2916" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2916" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F2916" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G2916" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2916" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2916" t="n">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2917" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2917" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2917" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2917" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2917" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2917" t="n">
+        <v>6700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2917"/>
+  <dimension ref="A1:I2918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103529,6 +103529,41 @@
         <v>6700</v>
       </c>
     </row>
+    <row r="2918">
+      <c r="A2918" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2918" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2918" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2918" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2918" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2918" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2918" t="n">
+        <v>8100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2918"/>
+  <dimension ref="A1:I2921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103564,6 +103564,117 @@
         <v>8100</v>
       </c>
     </row>
+    <row r="2919">
+      <c r="A2919" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2919" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2919" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2919" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2919" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2919" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2919" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2920" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2920" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2920" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2920" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2920" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2920" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2921" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2921" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2921" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G2921" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2921" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2921" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2921"/>
+  <dimension ref="A1:I2922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103675,6 +103675,41 @@
         </is>
       </c>
     </row>
+    <row r="2922">
+      <c r="A2922" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2922" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2922" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2922" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2922" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2922" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2922" t="n">
+        <v>10600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2922"/>
+  <dimension ref="A1:I2923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103710,6 +103710,41 @@
         <v>10600</v>
       </c>
     </row>
+    <row r="2923">
+      <c r="A2923" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2923" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2923" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2923" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2923" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2923" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2923" t="n">
+        <v>6600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5084.xlsx
+++ b/data/5084.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2923"/>
+  <dimension ref="A1:I2926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103745,6 +103745,113 @@
         <v>6600</v>
       </c>
     </row>
+    <row r="2924">
+      <c r="A2924" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2924" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2924" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F2924" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2924" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2924" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2924" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2925" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2925" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2925" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F2925" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2925" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2925" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2925" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2926" t="inlineStr">
+        <is>
+          <t>5084</t>
+        </is>
+      </c>
+      <c r="D2926" t="inlineStr">
+        <is>
+          <t>IBRACO</t>
+        </is>
+      </c>
+      <c r="E2926" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2926" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2926" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2926" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2926" t="n">
+        <v>6200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
